--- a/2021-06-25/Poker.xlsx
+++ b/2021-06-25/Poker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenneth\Documents\GitHub\Riddler\2021-06-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1175E007-2125-40C1-B3DC-4403030905E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F19C43-67AE-44F1-AD16-E5F0CDE806DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0A257262-4982-48E5-B532-1024AF9EFF68}"/>
   </bookViews>
@@ -19,6 +19,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -71,7 +78,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -214,10 +221,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,10 +551,10 @@
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,10 +683,6 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="P12" t="str">
-        <f>FIXED((55-$C12)/D$11,1)</f>
-        <v>5.0</v>
-      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
